--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1987.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1987.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205534906370384</v>
+        <v>0.6428402662277222</v>
       </c>
       <c r="B1">
-        <v>2.220944399449868</v>
+        <v>0.7705091834068298</v>
       </c>
       <c r="C1">
-        <v>8.299586545615446</v>
+        <v>1.032574772834778</v>
       </c>
       <c r="D1">
-        <v>2.60984326574676</v>
+        <v>2.917504072189331</v>
       </c>
       <c r="E1">
-        <v>1.179535505748171</v>
+        <v>5.437038898468018</v>
       </c>
     </row>
   </sheetData>
